--- a/export/phieuphat.xlsx
+++ b/export/phieuphat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Mã PP</t>
   </si>
@@ -47,10 +47,49 @@
     <t>Tiến Cường</t>
   </si>
   <si>
-    <t>Trả muộn 8 ngày</t>
-  </si>
-  <si>
-    <t>8,000</t>
+    <t>Ướt sách + Trả muộn 9 ngày</t>
+  </si>
+  <si>
+    <t>88,000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Trạng Quỳnh tập 2</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Trúc</t>
+  </si>
+  <si>
+    <t>Mất trang + Trả muộn 7 ngày</t>
+  </si>
+  <si>
+    <t>9,000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Rách sách + Trả muộn 11 ngày</t>
+  </si>
+  <si>
+    <t>3,750</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Tôi là Bêtô</t>
+  </si>
+  <si>
+    <t>Võ Đăng Khoa</t>
+  </si>
+  <si>
+    <t>Rách sách + Trả muộn 31 ngày</t>
+  </si>
+  <si>
+    <t>21,250</t>
   </si>
 </sst>
 </file>
@@ -138,7 +177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -146,10 +185,10 @@
   <cols>
     <col min="1" max="1" width="8.78515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.70703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.05078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.82421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.38671875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="33.1484375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="12.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -199,6 +238,75 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
